--- a/Code/Results/Cases/Case_5_218/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_218/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.057673713575468</v>
+        <v>0.447159934046681</v>
       </c>
       <c r="C2">
-        <v>0.3011234946461343</v>
+        <v>0.1183654977525634</v>
       </c>
       <c r="D2">
-        <v>0.03783655358054894</v>
+        <v>0.05647233328883239</v>
       </c>
       <c r="E2">
-        <v>0.2818571238963443</v>
+        <v>0.1211252422109226</v>
       </c>
       <c r="F2">
-        <v>1.283891771342681</v>
+        <v>1.450653168606735</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.733622842795242</v>
+        <v>1.012805003001851</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.337560461161956</v>
+        <v>0.5539443074843007</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6897738468679862</v>
+        <v>0.2907387100251739</v>
       </c>
       <c r="N2">
-        <v>1.268493491175349</v>
+        <v>2.175246244320618</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9149386177827239</v>
+        <v>0.4095024174869195</v>
       </c>
       <c r="C3">
-        <v>0.2600736923448608</v>
+        <v>0.107538064383391</v>
       </c>
       <c r="D3">
-        <v>0.03878756001519079</v>
+        <v>0.05652549211416336</v>
       </c>
       <c r="E3">
-        <v>0.2438309535715177</v>
+        <v>0.1114079124986063</v>
       </c>
       <c r="F3">
-        <v>1.186244200143477</v>
+        <v>1.43216799730682</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.6982250075537593</v>
+        <v>1.008086454538493</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.156554221414183</v>
+        <v>0.5062130379697578</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5962925634221605</v>
+        <v>0.2664624142609497</v>
       </c>
       <c r="N3">
-        <v>1.290280075358936</v>
+        <v>2.185885919413813</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8282028027474269</v>
+        <v>0.3865995802259192</v>
       </c>
       <c r="C4">
-        <v>0.2352381972589797</v>
+        <v>0.1009493183574079</v>
       </c>
       <c r="D4">
-        <v>0.03937220458552915</v>
+        <v>0.0565567656189927</v>
       </c>
       <c r="E4">
-        <v>0.2209378446500523</v>
+        <v>0.1055151441356088</v>
       </c>
       <c r="F4">
-        <v>1.12853675737118</v>
+        <v>1.421597236561709</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.6777726097143102</v>
+        <v>1.005664435391232</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.046687022293099</v>
+        <v>0.4771790985443545</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5397529163166723</v>
+        <v>0.2517154666154724</v>
       </c>
       <c r="N4">
-        <v>1.305340407183863</v>
+        <v>2.193064949504105</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7930528661470646</v>
+        <v>0.3773215009837259</v>
       </c>
       <c r="C5">
-        <v>0.2251979638051864</v>
+        <v>0.09827912791156734</v>
       </c>
       <c r="D5">
-        <v>0.03961071915406045</v>
+        <v>0.05656917047867616</v>
       </c>
       <c r="E5">
-        <v>0.2117087584854005</v>
+        <v>0.1031320722319222</v>
       </c>
       <c r="F5">
-        <v>1.105541816594496</v>
+        <v>1.417485132810938</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.6697385235265187</v>
+        <v>1.004796747489685</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.002191003351129</v>
+        <v>0.4654160143265642</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5169001971829204</v>
+        <v>0.2457455522015977</v>
       </c>
       <c r="N5">
-        <v>1.311881510575134</v>
+        <v>2.196152724653402</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7872271733017158</v>
+        <v>0.3757842039003663</v>
       </c>
       <c r="C6">
-        <v>0.2235353021372362</v>
+        <v>0.09783663311733903</v>
       </c>
       <c r="D6">
-        <v>0.03965034303612569</v>
+        <v>0.05657120992722753</v>
       </c>
       <c r="E6">
-        <v>0.2101819169258334</v>
+        <v>0.1027374615082124</v>
       </c>
       <c r="F6">
-        <v>1.101753776645296</v>
+        <v>1.416814122139485</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.6684220015265367</v>
+        <v>1.004659868909251</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9948179006202622</v>
+        <v>0.4634668927290022</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5131160681000964</v>
+        <v>0.244756633405359</v>
       </c>
       <c r="N6">
-        <v>1.31299150915315</v>
+        <v>2.196675240725384</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8277280067730999</v>
+        <v>0.3864742301406352</v>
       </c>
       <c r="C7">
-        <v>0.2351024812691662</v>
+        <v>0.1009132475935104</v>
       </c>
       <c r="D7">
-        <v>0.03937542007819772</v>
+        <v>0.05655693428369268</v>
       </c>
       <c r="E7">
-        <v>0.2208129911707815</v>
+        <v>0.1054829315198518</v>
       </c>
       <c r="F7">
-        <v>1.128224584928716</v>
+        <v>1.421540987946059</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.6776630706999001</v>
+        <v>1.005652250639777</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.046085872789661</v>
+        <v>0.4770201804957424</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.539443992567648</v>
+        <v>0.2516347944289805</v>
       </c>
       <c r="N7">
-        <v>1.305427012051169</v>
+        <v>2.193105935653165</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.008251183926888</v>
+        <v>0.4341301106053095</v>
       </c>
       <c r="C8">
-        <v>0.286885120050016</v>
+        <v>0.1146197913984395</v>
       </c>
       <c r="D8">
-        <v>0.03816436067463869</v>
+        <v>0.05649094849349012</v>
       </c>
       <c r="E8">
-        <v>0.2686422272874154</v>
+        <v>0.11775925052509</v>
       </c>
       <c r="F8">
-        <v>1.249728678205102</v>
+        <v>1.444117522820065</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.7211378971467894</v>
+        <v>1.011079306099084</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.274858188055475</v>
+        <v>0.5374296969102943</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6573457618016292</v>
+        <v>0.2823350696118325</v>
       </c>
       <c r="N8">
-        <v>1.275644046935582</v>
+        <v>2.178780536495012</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.370994175139344</v>
+        <v>0.5293293384289086</v>
       </c>
       <c r="C9">
-        <v>0.3919734042880805</v>
+        <v>0.1419771266253065</v>
       </c>
       <c r="D9">
-        <v>0.03579159197780335</v>
+        <v>0.05635052502541704</v>
       </c>
       <c r="E9">
-        <v>0.3667585071358275</v>
+        <v>0.1424307895993522</v>
       </c>
       <c r="F9">
-        <v>1.508002713106961</v>
+        <v>1.494593657150844</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.8176395704078203</v>
+        <v>1.025502279070814</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.735733474727255</v>
+        <v>0.6580778015864155</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8967505909573106</v>
+        <v>0.3438170289361224</v>
       </c>
       <c r="N9">
-        <v>1.231543466059449</v>
+        <v>2.155826967318603</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.645222134147474</v>
+        <v>0.600355990660006</v>
       </c>
       <c r="C10">
-        <v>0.4722824131828247</v>
+        <v>0.1623816424973938</v>
       </c>
       <c r="D10">
-        <v>0.0340450662817382</v>
+        <v>0.05624038460927494</v>
       </c>
       <c r="E10">
-        <v>0.4425772372492105</v>
+        <v>0.1609409972825446</v>
       </c>
       <c r="F10">
-        <v>1.713252683784575</v>
+        <v>1.535495407624083</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.8970360679089424</v>
+        <v>1.038420108519304</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.085126227976957</v>
+        <v>0.7480834786603339</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.079774823196736</v>
+        <v>0.3897982833435023</v>
       </c>
       <c r="N10">
-        <v>1.209306073607706</v>
+        <v>2.14211117326974</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.772246337798322</v>
+        <v>0.6329078513584534</v>
       </c>
       <c r="C11">
-        <v>0.5097257727826445</v>
+        <v>0.1717334078409465</v>
       </c>
       <c r="D11">
-        <v>0.03324904200943912</v>
+        <v>0.05618871546012016</v>
       </c>
       <c r="E11">
-        <v>0.4781560761979264</v>
+        <v>0.1694495231298987</v>
       </c>
       <c r="F11">
-        <v>1.81081151314261</v>
+        <v>1.554939478886979</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.9354085427622962</v>
+        <v>1.04480457637284</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.247241897063077</v>
+        <v>0.7893337248194996</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.1651206020994</v>
+        <v>0.410899300822031</v>
       </c>
       <c r="N11">
-        <v>1.201757467006402</v>
+        <v>2.136558583585952</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.820729338696736</v>
+        <v>0.6452693322060838</v>
       </c>
       <c r="C12">
-        <v>0.5240574825268425</v>
+        <v>0.1752848905518647</v>
       </c>
       <c r="D12">
-        <v>0.03294734767485252</v>
+        <v>0.05616892107542348</v>
       </c>
       <c r="E12">
-        <v>0.4918113918743288</v>
+        <v>0.1726844711147066</v>
       </c>
       <c r="F12">
-        <v>1.848433265542752</v>
+        <v>1.562423431925851</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.9503014314491907</v>
+        <v>1.047295532701725</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.30916391940633</v>
+        <v>0.8049985816891478</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.197788843095893</v>
+        <v>0.4189166185275042</v>
       </c>
       <c r="N12">
-        <v>1.199302176147441</v>
+        <v>2.134555017945445</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.810269755648733</v>
+        <v>0.6426055172898373</v>
       </c>
       <c r="C13">
-        <v>0.5209637271502174</v>
+        <v>0.1745195602854608</v>
       </c>
       <c r="D13">
-        <v>0.03301233481850652</v>
+        <v>0.05617319435739354</v>
       </c>
       <c r="E13">
-        <v>0.488861920293985</v>
+        <v>0.1719871865815605</v>
       </c>
       <c r="F13">
-        <v>1.84029928498822</v>
+        <v>1.560806244203647</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.9470772329079438</v>
+        <v>1.046755797007052</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.295802936328471</v>
+        <v>0.8016229008923972</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.190736755279104</v>
+        <v>0.4171887468803988</v>
       </c>
       <c r="N13">
-        <v>1.19981245308017</v>
+        <v>2.134982109924181</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.776227082560325</v>
+        <v>0.6339241399979869</v>
       </c>
       <c r="C14">
-        <v>0.5109016569685707</v>
+        <v>0.1720253856929332</v>
       </c>
       <c r="D14">
-        <v>0.03322422675011438</v>
+        <v>0.05618709155978507</v>
       </c>
       <c r="E14">
-        <v>0.4792756933792717</v>
+        <v>0.1697154030222379</v>
       </c>
       <c r="F14">
-        <v>1.813892619427406</v>
+        <v>1.555552762485988</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.9366263023298558</v>
+        <v>1.045008038511874</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.252325127986921</v>
+        <v>0.7906215930508722</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.167800927471426</v>
+        <v>0.4115583507014975</v>
       </c>
       <c r="N14">
-        <v>1.201547179950836</v>
+        <v>2.136391761487516</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.755426377767719</v>
+        <v>0.6286110796554567</v>
       </c>
       <c r="C15">
-        <v>0.5047589251338707</v>
+        <v>0.1704989611269809</v>
       </c>
       <c r="D15">
-        <v>0.03335398232600539</v>
+        <v>0.05619557416068943</v>
       </c>
       <c r="E15">
-        <v>0.4734284217057194</v>
+        <v>0.1683255653134239</v>
       </c>
       <c r="F15">
-        <v>1.79780850138512</v>
+        <v>1.552350612142249</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.9302731483118265</v>
+        <v>1.043947038422985</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.225765424486553</v>
+        <v>0.7838887489481579</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.153799167044582</v>
+        <v>0.408113074421486</v>
       </c>
       <c r="N15">
-        <v>1.202663331575408</v>
+        <v>2.13726812641454</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.636971132478294</v>
+        <v>0.5982335153723</v>
       </c>
       <c r="C16">
-        <v>0.4698555322407856</v>
+        <v>0.1617718975122955</v>
       </c>
       <c r="D16">
-        <v>0.03409705407067243</v>
+        <v>0.05624372952049583</v>
       </c>
       <c r="E16">
-        <v>0.4402761244431588</v>
+        <v>0.1603867425453345</v>
       </c>
       <c r="F16">
-        <v>1.706967600158563</v>
+        <v>1.534241586109545</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.8945768523784352</v>
+        <v>1.038013112491356</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.074601778421027</v>
+        <v>0.7453938611702426</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.074243386488227</v>
+        <v>0.3884230149123908</v>
       </c>
       <c r="N16">
-        <v>1.20985388048571</v>
+        <v>2.142487895312996</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.564922698857202</v>
+        <v>0.5796597633301701</v>
       </c>
       <c r="C17">
-        <v>0.4486913981212979</v>
+        <v>0.1564360763944421</v>
       </c>
       <c r="D17">
-        <v>0.03455248253606236</v>
+        <v>0.05627286787401253</v>
       </c>
       <c r="E17">
-        <v>0.4202345572738366</v>
+        <v>0.1555393047417226</v>
       </c>
       <c r="F17">
-        <v>1.652364284910348</v>
+        <v>1.523347149060911</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.873281516936359</v>
+        <v>1.034503139705471</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.982732492333611</v>
+        <v>0.7218570996028859</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.02600664209762</v>
+        <v>0.3763911707499261</v>
       </c>
       <c r="N17">
-        <v>1.214945691959159</v>
+        <v>2.145866184696743</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.523693060091489</v>
+        <v>0.5689993570857439</v>
       </c>
       <c r="C18">
-        <v>0.4366026012070847</v>
+        <v>0.1533735994216272</v>
       </c>
       <c r="D18">
-        <v>0.03481429119584156</v>
+        <v>0.05628948028958369</v>
       </c>
       <c r="E18">
-        <v>0.4088079242354041</v>
+        <v>0.1527594659934124</v>
       </c>
       <c r="F18">
-        <v>1.621347265311115</v>
+        <v>1.517159774224609</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.8612427321419034</v>
+        <v>1.032532105045881</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.930185594703886</v>
+        <v>0.7083481837057946</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9984553302918968</v>
+        <v>0.36948806054356</v>
       </c>
       <c r="N18">
-        <v>1.218113773630222</v>
+        <v>2.147873912245331</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.509768036507012</v>
+        <v>0.565393827520694</v>
       </c>
       <c r="C19">
-        <v>0.4325233858877482</v>
+        <v>0.1523378169049749</v>
       </c>
       <c r="D19">
-        <v>0.03490291219977593</v>
+        <v>0.0562950797905355</v>
       </c>
       <c r="E19">
-        <v>0.4049556247602553</v>
+        <v>0.1518196738463971</v>
       </c>
       <c r="F19">
-        <v>1.610910121940449</v>
+        <v>1.515078358710284</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.8572015369083914</v>
+        <v>1.031872950681176</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.912442410576546</v>
+        <v>0.7037792369341389</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9891586865045952</v>
+        <v>0.367153743995452</v>
       </c>
       <c r="N19">
-        <v>1.219226570990031</v>
+        <v>2.14856478403442</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.572570193394341</v>
+        <v>0.5816346185089571</v>
       </c>
       <c r="C20">
-        <v>0.4509354858705876</v>
+        <v>0.1570034050241702</v>
       </c>
       <c r="D20">
-        <v>0.03450401639984868</v>
+        <v>0.05626978130382732</v>
       </c>
       <c r="E20">
-        <v>0.4223574113860664</v>
+        <v>0.1560544638830805</v>
       </c>
       <c r="F20">
-        <v>1.658136078465418</v>
+        <v>1.524498719941747</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.8755264737781232</v>
+        <v>1.0348718325627</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.992481194643204</v>
+        <v>0.7243596448547294</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.031121189900375</v>
+        <v>0.3776701891324947</v>
       </c>
       <c r="N20">
-        <v>1.214378647226241</v>
+        <v>2.145499869281352</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.786215420927192</v>
+        <v>0.6364731259485836</v>
       </c>
       <c r="C21">
-        <v>0.513852800392101</v>
+        <v>0.1727577079043385</v>
       </c>
       <c r="D21">
-        <v>0.03316199615688475</v>
+        <v>0.05618301583756846</v>
       </c>
       <c r="E21">
-        <v>0.4820862300298714</v>
+        <v>0.170382327117963</v>
       </c>
       <c r="F21">
-        <v>1.821629842994852</v>
+        <v>1.557092552459963</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.9396858461516899</v>
+        <v>1.045519406400693</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.265080523434847</v>
+        <v>0.793851739961724</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.174527825069937</v>
+        <v>0.4132114036494698</v>
       </c>
       <c r="N21">
-        <v>1.201026416347943</v>
+        <v>2.135975021092221</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.928099111982419</v>
+        <v>0.6725161247630069</v>
       </c>
       <c r="C22">
-        <v>0.5558749817223543</v>
+        <v>0.1831134204102511</v>
       </c>
       <c r="D22">
-        <v>0.03228340414358222</v>
+        <v>0.0561249769485066</v>
       </c>
       <c r="E22">
-        <v>0.5221997373554359</v>
+        <v>0.1798220506826524</v>
       </c>
       <c r="F22">
-        <v>1.932477486690459</v>
+        <v>1.579099447477731</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.9837486293294404</v>
+        <v>1.052905553272169</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.44638389135045</v>
+        <v>0.8395270819162022</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.270317396514272</v>
+        <v>0.4365961474292988</v>
       </c>
       <c r="N22">
-        <v>1.194668664936358</v>
+        <v>2.130327645275131</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.852147404857675</v>
+        <v>0.6532607107408239</v>
       </c>
       <c r="C23">
-        <v>0.5333565683788777</v>
+        <v>0.1775808976674966</v>
       </c>
       <c r="D23">
-        <v>0.0327524709887026</v>
+        <v>0.05615607635113307</v>
       </c>
       <c r="E23">
-        <v>0.50068249624141</v>
+        <v>0.1747768788224633</v>
       </c>
       <c r="F23">
-        <v>1.872923272750313</v>
+        <v>1.567289300948886</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.9600229408072636</v>
+        <v>1.048924247357576</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.349304041537437</v>
+        <v>0.8151255790032508</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.218985930031209</v>
+        <v>0.4241008248648228</v>
       </c>
       <c r="N23">
-        <v>1.197832953291098</v>
+        <v>2.133288793090884</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.569112167221448</v>
+        <v>0.5807417307620142</v>
       </c>
       <c r="C24">
-        <v>0.4499206901423634</v>
+        <v>0.1567468996992147</v>
       </c>
       <c r="D24">
-        <v>0.03452592800940124</v>
+        <v>0.05627117717588526</v>
       </c>
       <c r="E24">
-        <v>0.4213973734012129</v>
+        <v>0.1558215386015362</v>
       </c>
       <c r="F24">
-        <v>1.655525487717128</v>
+        <v>1.523977858088642</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.8745108956048426</v>
+        <v>1.03470500045249</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.988072971032437</v>
+        <v>0.7232281735194874</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.028808343875419</v>
+        <v>0.3770919008587015</v>
       </c>
       <c r="N24">
-        <v>1.214634260852989</v>
+        <v>2.145665276436688</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.271692959506566</v>
+        <v>0.5033865067821637</v>
       </c>
       <c r="C25">
-        <v>0.363073219776112</v>
+        <v>0.1345236235841014</v>
       </c>
       <c r="D25">
-        <v>0.03643376273391574</v>
+        <v>0.05638972030302547</v>
       </c>
       <c r="E25">
-        <v>0.3396459313289526</v>
+        <v>0.1356904722248871</v>
       </c>
       <c r="F25">
-        <v>1.435668467840856</v>
+        <v>1.48027078216721</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.7901689464714892</v>
+        <v>1.021194050073689</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.609418409325286</v>
+        <v>0.6252019211410413</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8308992641546311</v>
+        <v>0.3270444468715255</v>
       </c>
       <c r="N25">
-        <v>1.241801855896441</v>
+        <v>2.16148480625148</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_218/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_218/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.447159934046681</v>
+        <v>1.057673713575554</v>
       </c>
       <c r="C2">
-        <v>0.1183654977525634</v>
+        <v>0.3011234946461627</v>
       </c>
       <c r="D2">
-        <v>0.05647233328883239</v>
+        <v>0.03783655358053828</v>
       </c>
       <c r="E2">
-        <v>0.1211252422109226</v>
+        <v>0.2818571238963372</v>
       </c>
       <c r="F2">
-        <v>1.450653168606735</v>
+        <v>1.283891771342653</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>1.012805003001851</v>
+        <v>0.733622842795242</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5539443074843007</v>
+        <v>1.337560461162013</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2907387100251739</v>
+        <v>0.6897738468679862</v>
       </c>
       <c r="N2">
-        <v>2.175246244320618</v>
+        <v>1.268493491175292</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4095024174869195</v>
+        <v>0.9149386177827807</v>
       </c>
       <c r="C3">
-        <v>0.107538064383391</v>
+        <v>0.2600736923448608</v>
       </c>
       <c r="D3">
-        <v>0.05652549211416336</v>
+        <v>0.03878756001519434</v>
       </c>
       <c r="E3">
-        <v>0.1114079124986063</v>
+        <v>0.2438309535715462</v>
       </c>
       <c r="F3">
-        <v>1.43216799730682</v>
+        <v>1.186244200143491</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.008086454538493</v>
+        <v>0.6982250075537806</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5062130379697578</v>
+        <v>1.156554221414183</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2664624142609497</v>
+        <v>0.5962925634221392</v>
       </c>
       <c r="N3">
-        <v>2.185885919413813</v>
+        <v>1.290280075358964</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3865995802259192</v>
+        <v>0.8282028027475121</v>
       </c>
       <c r="C4">
-        <v>0.1009493183574079</v>
+        <v>0.2352381972590933</v>
       </c>
       <c r="D4">
-        <v>0.0565567656189927</v>
+        <v>0.03937220458539059</v>
       </c>
       <c r="E4">
-        <v>0.1055151441356088</v>
+        <v>0.2209378446500381</v>
       </c>
       <c r="F4">
-        <v>1.421597236561709</v>
+        <v>1.128536757371165</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.005664435391232</v>
+        <v>0.6777726097143031</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4771790985443545</v>
+        <v>1.046687022293128</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2517154666154724</v>
+        <v>0.5397529163166652</v>
       </c>
       <c r="N4">
-        <v>2.193064949504105</v>
+        <v>1.305340407183841</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3773215009837259</v>
+        <v>0.7930528661470646</v>
       </c>
       <c r="C5">
-        <v>0.09827912791156734</v>
+        <v>0.2251979638050727</v>
       </c>
       <c r="D5">
-        <v>0.05656917047867616</v>
+        <v>0.039610719154064</v>
       </c>
       <c r="E5">
-        <v>0.1031320722319222</v>
+        <v>0.2117087584854005</v>
       </c>
       <c r="F5">
-        <v>1.417485132810938</v>
+        <v>1.105541816594496</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.004796747489685</v>
+        <v>0.669738523526533</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4654160143265642</v>
+        <v>1.002191003351186</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2457455522015977</v>
+        <v>0.5169001971829346</v>
       </c>
       <c r="N5">
-        <v>2.196152724653402</v>
+        <v>1.311881510575155</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3757842039003663</v>
+        <v>0.7872271733018295</v>
       </c>
       <c r="C6">
-        <v>0.09783663311733903</v>
+        <v>0.2235353021372219</v>
       </c>
       <c r="D6">
-        <v>0.05657120992722753</v>
+        <v>0.03965034303612391</v>
       </c>
       <c r="E6">
-        <v>0.1027374615082124</v>
+        <v>0.2101819169258405</v>
       </c>
       <c r="F6">
-        <v>1.416814122139485</v>
+        <v>1.101753776645296</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.004659868909251</v>
+        <v>0.6684220015265225</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4634668927290022</v>
+        <v>0.9948179006202622</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.244756633405359</v>
+        <v>0.5131160681001035</v>
       </c>
       <c r="N6">
-        <v>2.196675240725384</v>
+        <v>1.312991509153136</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3864742301406352</v>
+        <v>0.8277280067732704</v>
       </c>
       <c r="C7">
-        <v>0.1009132475935104</v>
+        <v>0.2351024812690383</v>
       </c>
       <c r="D7">
-        <v>0.05655693428369268</v>
+        <v>0.03937542007838424</v>
       </c>
       <c r="E7">
-        <v>0.1054829315198518</v>
+        <v>0.220812991170753</v>
       </c>
       <c r="F7">
-        <v>1.421540987946059</v>
+        <v>1.128224584928716</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.005652250639777</v>
+        <v>0.6776630706999072</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4770201804957424</v>
+        <v>1.046085872789746</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2516347944289805</v>
+        <v>0.5394439925676551</v>
       </c>
       <c r="N7">
-        <v>2.193105935653165</v>
+        <v>1.305427012051162</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4341301106053095</v>
+        <v>1.008251183926888</v>
       </c>
       <c r="C8">
-        <v>0.1146197913984395</v>
+        <v>0.2868851200499876</v>
       </c>
       <c r="D8">
-        <v>0.05649094849349012</v>
+        <v>0.03816436067451612</v>
       </c>
       <c r="E8">
-        <v>0.11775925052509</v>
+        <v>0.2686422272874296</v>
       </c>
       <c r="F8">
-        <v>1.444117522820065</v>
+        <v>1.249728678205102</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.011079306099084</v>
+        <v>0.7211378971467894</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5374296969102943</v>
+        <v>1.274858188055504</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2823350696118325</v>
+        <v>0.6573457618016363</v>
       </c>
       <c r="N8">
-        <v>2.178780536495012</v>
+        <v>1.275644046935597</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5293293384289086</v>
+        <v>1.370994175139316</v>
       </c>
       <c r="C9">
-        <v>0.1419771266253065</v>
+        <v>0.3919734042881942</v>
       </c>
       <c r="D9">
-        <v>0.05635052502541704</v>
+        <v>0.03579159197799875</v>
       </c>
       <c r="E9">
-        <v>0.1424307895993522</v>
+        <v>0.3667585071358559</v>
       </c>
       <c r="F9">
-        <v>1.494593657150844</v>
+        <v>1.508002713106961</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.025502279070814</v>
+        <v>0.8176395704078061</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6580778015864155</v>
+        <v>1.735733474727141</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3438170289361224</v>
+        <v>0.8967505909573177</v>
       </c>
       <c r="N9">
-        <v>2.155826967318603</v>
+        <v>1.231543466059421</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.600355990660006</v>
+        <v>1.645222134147417</v>
       </c>
       <c r="C10">
-        <v>0.1623816424973938</v>
+        <v>0.4722824131829668</v>
       </c>
       <c r="D10">
-        <v>0.05624038460927494</v>
+        <v>0.03404506628153392</v>
       </c>
       <c r="E10">
-        <v>0.1609409972825446</v>
+        <v>0.4425772372492247</v>
       </c>
       <c r="F10">
-        <v>1.535495407624083</v>
+        <v>1.713252683784575</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.038420108519304</v>
+        <v>0.8970360679089424</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7480834786603339</v>
+        <v>2.085126227976986</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3897982833435023</v>
+        <v>1.079774823196736</v>
       </c>
       <c r="N10">
-        <v>2.14211117326974</v>
+        <v>1.209306073607635</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6329078513584534</v>
+        <v>1.772246337798322</v>
       </c>
       <c r="C11">
-        <v>0.1717334078409465</v>
+        <v>0.5097257727825877</v>
       </c>
       <c r="D11">
-        <v>0.05618871546012016</v>
+        <v>0.03324904200954215</v>
       </c>
       <c r="E11">
-        <v>0.1694495231298987</v>
+        <v>0.4781560761979335</v>
       </c>
       <c r="F11">
-        <v>1.554939478886979</v>
+        <v>1.810811513142625</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.04480457637284</v>
+        <v>0.9354085427622962</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7893337248194996</v>
+        <v>2.247241897063105</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.410899300822031</v>
+        <v>1.1651206020994</v>
       </c>
       <c r="N11">
-        <v>2.136558583585952</v>
+        <v>1.201757467006487</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6452693322060838</v>
+        <v>1.820729338696623</v>
       </c>
       <c r="C12">
-        <v>0.1752848905518647</v>
+        <v>0.5240574825267572</v>
       </c>
       <c r="D12">
-        <v>0.05616892107542348</v>
+        <v>0.03294734767493779</v>
       </c>
       <c r="E12">
-        <v>0.1726844711147066</v>
+        <v>0.4918113918743288</v>
       </c>
       <c r="F12">
-        <v>1.562423431925851</v>
+        <v>1.848433265542752</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>1.047295532701725</v>
+        <v>0.9503014314491622</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8049985816891478</v>
+        <v>2.309163919406245</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4189166185275042</v>
+        <v>1.197788843095921</v>
       </c>
       <c r="N12">
-        <v>2.134555017945445</v>
+        <v>1.199302176147484</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6426055172898373</v>
+        <v>1.810269755648562</v>
       </c>
       <c r="C13">
-        <v>0.1745195602854608</v>
+        <v>0.5209637271501038</v>
       </c>
       <c r="D13">
-        <v>0.05617319435739354</v>
+        <v>0.03301233481839283</v>
       </c>
       <c r="E13">
-        <v>0.1719871865815605</v>
+        <v>0.4888619202940134</v>
       </c>
       <c r="F13">
-        <v>1.560806244203647</v>
+        <v>1.84029928498822</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.046755797007052</v>
+        <v>0.947077232907958</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8016229008923972</v>
+        <v>2.295802936328471</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4171887468803988</v>
+        <v>1.19073675527909</v>
       </c>
       <c r="N13">
-        <v>2.134982109924181</v>
+        <v>1.199812453080156</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6339241399979869</v>
+        <v>1.776227082560354</v>
       </c>
       <c r="C14">
-        <v>0.1720253856929332</v>
+        <v>0.5109016569688265</v>
       </c>
       <c r="D14">
-        <v>0.05618709155978507</v>
+        <v>0.03322422675041636</v>
       </c>
       <c r="E14">
-        <v>0.1697154030222379</v>
+        <v>0.479275693379293</v>
       </c>
       <c r="F14">
-        <v>1.555552762485988</v>
+        <v>1.813892619427421</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.045008038511874</v>
+        <v>0.9366263023298771</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7906215930508722</v>
+        <v>2.252325127987007</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4115583507014975</v>
+        <v>1.167800927471447</v>
       </c>
       <c r="N14">
-        <v>2.136391761487516</v>
+        <v>1.201547179950836</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6286110796554567</v>
+        <v>1.755426377767748</v>
       </c>
       <c r="C15">
-        <v>0.1704989611269809</v>
+        <v>0.5047589251340128</v>
       </c>
       <c r="D15">
-        <v>0.05619557416068943</v>
+        <v>0.03335398232590059</v>
       </c>
       <c r="E15">
-        <v>0.1683255653134239</v>
+        <v>0.4734284217057123</v>
       </c>
       <c r="F15">
-        <v>1.552350612142249</v>
+        <v>1.79780850138512</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.043947038422985</v>
+        <v>0.9302731483118336</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7838887489481579</v>
+        <v>2.225765424486497</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.408113074421486</v>
+        <v>1.153799167044582</v>
       </c>
       <c r="N15">
-        <v>2.13726812641454</v>
+        <v>1.202663331575394</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5982335153723</v>
+        <v>1.636971132478209</v>
       </c>
       <c r="C16">
-        <v>0.1617718975122955</v>
+        <v>0.4698555322409561</v>
       </c>
       <c r="D16">
-        <v>0.05624372952049583</v>
+        <v>0.03409705407067243</v>
       </c>
       <c r="E16">
-        <v>0.1603867425453345</v>
+        <v>0.4402761244431588</v>
       </c>
       <c r="F16">
-        <v>1.534241586109545</v>
+        <v>1.706967600158563</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.038013112491356</v>
+        <v>0.8945768523784352</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7453938611702426</v>
+        <v>2.07460177842097</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3884230149123908</v>
+        <v>1.074243386488227</v>
       </c>
       <c r="N16">
-        <v>2.142487895312996</v>
+        <v>1.209853880485781</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5796597633301701</v>
+        <v>1.564922698857288</v>
       </c>
       <c r="C17">
-        <v>0.1564360763944421</v>
+        <v>0.4486913981211558</v>
       </c>
       <c r="D17">
-        <v>0.05627286787401253</v>
+        <v>0.03455248253603749</v>
       </c>
       <c r="E17">
-        <v>0.1555393047417226</v>
+        <v>0.4202345572738366</v>
       </c>
       <c r="F17">
-        <v>1.523347149060911</v>
+        <v>1.652364284910362</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.034503139705471</v>
+        <v>0.8732815169363519</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7218570996028859</v>
+        <v>1.982732492333582</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3763911707499261</v>
+        <v>1.026006642097613</v>
       </c>
       <c r="N17">
-        <v>2.145866184696743</v>
+        <v>1.214945691959159</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5689993570857439</v>
+        <v>1.52369306009129</v>
       </c>
       <c r="C18">
-        <v>0.1533735994216272</v>
+        <v>0.4366026012070847</v>
       </c>
       <c r="D18">
-        <v>0.05628948028958369</v>
+        <v>0.03481429119593749</v>
       </c>
       <c r="E18">
-        <v>0.1527594659934124</v>
+        <v>0.4088079242354112</v>
       </c>
       <c r="F18">
-        <v>1.517159774224609</v>
+        <v>1.621347265311101</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.032532105045881</v>
+        <v>0.8612427321419105</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7083481837057946</v>
+        <v>1.930185594703914</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.36948806054356</v>
+        <v>0.9984553302919039</v>
       </c>
       <c r="N18">
-        <v>2.147873912245331</v>
+        <v>1.218113773630222</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.565393827520694</v>
+        <v>1.509768036507097</v>
       </c>
       <c r="C19">
-        <v>0.1523378169049749</v>
+        <v>0.4325233858876629</v>
       </c>
       <c r="D19">
-        <v>0.0562950797905355</v>
+        <v>0.03490291219996244</v>
       </c>
       <c r="E19">
-        <v>0.1518196738463971</v>
+        <v>0.4049556247603192</v>
       </c>
       <c r="F19">
-        <v>1.515078358710284</v>
+        <v>1.610910121940464</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.031872950681176</v>
+        <v>0.8572015369083985</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7037792369341389</v>
+        <v>1.912442410576546</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.367153743995452</v>
+        <v>0.9891586865046165</v>
       </c>
       <c r="N19">
-        <v>2.14856478403442</v>
+        <v>1.219226570990031</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5816346185089571</v>
+        <v>1.572570193394256</v>
       </c>
       <c r="C20">
-        <v>0.1570034050241702</v>
+        <v>0.4509354858704739</v>
       </c>
       <c r="D20">
-        <v>0.05626978130382732</v>
+        <v>0.03450401639961242</v>
       </c>
       <c r="E20">
-        <v>0.1560544638830805</v>
+        <v>0.4223574113860806</v>
       </c>
       <c r="F20">
-        <v>1.524498719941747</v>
+        <v>1.658136078465432</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.0348718325627</v>
+        <v>0.8755264737781161</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7243596448547294</v>
+        <v>1.992481194643204</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3776701891324947</v>
+        <v>1.031121189900382</v>
       </c>
       <c r="N20">
-        <v>2.145499869281352</v>
+        <v>1.214378647226326</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6364731259485836</v>
+        <v>1.786215420927192</v>
       </c>
       <c r="C21">
-        <v>0.1727577079043385</v>
+        <v>0.5138528003921579</v>
       </c>
       <c r="D21">
-        <v>0.05618301583756846</v>
+        <v>0.03316199615698068</v>
       </c>
       <c r="E21">
-        <v>0.170382327117963</v>
+        <v>0.4820862300298003</v>
       </c>
       <c r="F21">
-        <v>1.557092552459963</v>
+        <v>1.821629842994867</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.045519406400693</v>
+        <v>0.939685846151697</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.793851739961724</v>
+        <v>2.265080523434847</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4132114036494698</v>
+        <v>1.174527825069944</v>
       </c>
       <c r="N21">
-        <v>2.135975021092221</v>
+        <v>1.201026416347915</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6725161247630069</v>
+        <v>1.928099111982363</v>
       </c>
       <c r="C22">
-        <v>0.1831134204102511</v>
+        <v>0.5558749817221553</v>
       </c>
       <c r="D22">
-        <v>0.0561249769485066</v>
+        <v>0.03228340414348096</v>
       </c>
       <c r="E22">
-        <v>0.1798220506826524</v>
+        <v>0.5221997373554288</v>
       </c>
       <c r="F22">
-        <v>1.579099447477731</v>
+        <v>1.932477486690459</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.052905553272169</v>
+        <v>0.9837486293294404</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8395270819162022</v>
+        <v>2.44638389135045</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4365961474292988</v>
+        <v>1.270317396514272</v>
       </c>
       <c r="N22">
-        <v>2.130327645275131</v>
+        <v>1.194668664936344</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6532607107408239</v>
+        <v>1.852147404857789</v>
       </c>
       <c r="C23">
-        <v>0.1775808976674966</v>
+        <v>0.5333565683789345</v>
       </c>
       <c r="D23">
-        <v>0.05615607635113307</v>
+        <v>0.03275247098871858</v>
       </c>
       <c r="E23">
-        <v>0.1747768788224633</v>
+        <v>0.5006824962413674</v>
       </c>
       <c r="F23">
-        <v>1.567289300948886</v>
+        <v>1.872923272750313</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.048924247357576</v>
+        <v>0.9600229408072778</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8151255790032508</v>
+        <v>2.349304041537494</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4241008248648228</v>
+        <v>1.218985930031209</v>
       </c>
       <c r="N23">
-        <v>2.133288793090884</v>
+        <v>1.197832953291055</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5807417307620142</v>
+        <v>1.569112167221363</v>
       </c>
       <c r="C24">
-        <v>0.1567468996992147</v>
+        <v>0.4499206901421928</v>
       </c>
       <c r="D24">
-        <v>0.05627117717588526</v>
+        <v>0.03452592800919518</v>
       </c>
       <c r="E24">
-        <v>0.1558215386015362</v>
+        <v>0.4213973734012129</v>
       </c>
       <c r="F24">
-        <v>1.523977858088642</v>
+        <v>1.655525487717171</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.03470500045249</v>
+        <v>0.8745108956048355</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7232281735194874</v>
+        <v>1.988072971032437</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3770919008587015</v>
+        <v>1.028808343875404</v>
       </c>
       <c r="N24">
-        <v>2.145665276436688</v>
+        <v>1.214634260852947</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5033865067821637</v>
+        <v>1.271692959506595</v>
       </c>
       <c r="C25">
-        <v>0.1345236235841014</v>
+        <v>0.3630732197762256</v>
       </c>
       <c r="D25">
-        <v>0.05638972030302547</v>
+        <v>0.03643376273375765</v>
       </c>
       <c r="E25">
-        <v>0.1356904722248871</v>
+        <v>0.3396459313289597</v>
       </c>
       <c r="F25">
-        <v>1.48027078216721</v>
+        <v>1.43566846784087</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.021194050073689</v>
+        <v>0.7901689464714892</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6252019211410413</v>
+        <v>1.609418409325372</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3270444468715255</v>
+        <v>0.8308992641546098</v>
       </c>
       <c r="N25">
-        <v>2.16148480625148</v>
+        <v>1.241801855896369</v>
       </c>
       <c r="O25">
         <v>0</v>
